--- a/cleaned_structured_songs_data.xlsx
+++ b/cleaned_structured_songs_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainylty/STUDY/IVth/datascience/summer_school/summoning_and_lotr/Viz_of_Summoning_and_Middle_Earth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90399211-3FED-2B45-8D94-368798396A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD414733-9564-AC44-82DB-BD1BA320EE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="2120" windowWidth="31800" windowHeight="21900" xr2:uid="{5E9570CC-4598-2A4D-A4CD-D4496BCFE1CA}"/>
   </bookViews>
